--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="7380" tabRatio="746" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
   <si>
     <t>iLO</t>
   </si>
@@ -436,49 +436,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ライセンスステータス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>iLO</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>iLOライセンスステータス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ProcessorStatus</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>LicenseStatus</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プロセッサ構成ステータス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プロセッサ構成ステータス</t>
-    <rPh sb="5" eb="7">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>StorageStatus</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ディスクステータス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ディスク構成ステータス</t>
-    <rPh sb="4" eb="6">
-      <t>コウセイ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -524,15 +482,26 @@
     <t>trapcomm2</t>
   </si>
   <si>
-    <t>snmp_status</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>community</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>管理IP</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>iLO</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>管理IPアドレス</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -777,6 +746,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -785,9 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1073,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,23 +1062,23 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
@@ -1202,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1534,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1935,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" activeCellId="3" sqref="B13 B15 B19 B21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2078,21 +2047,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2100,19 +2067,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2120,10 +2085,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>0</v>
@@ -2132,23 +2097,27 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2174,33 +2143,37 @@
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2208,10 +2181,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
@@ -2220,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2228,10 +2201,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>0</v>
@@ -2240,59 +2213,23 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2310,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2329,19 +2266,19 @@
         <v>72</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2352,16 +2289,16 @@
         <v>108</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2369,19 +2306,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2393,7 +2330,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3"/>
     </row>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -1,56 +1,280 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\template\HP_iLO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="minoru"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="3"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="4" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="8" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="7" r:id="rId3"/>
-    <sheet name="チェックシート(iLO)" sheetId="2" r:id="rId4"/>
-    <sheet name="テンプレート(iLO)" sheetId="6" r:id="rId5"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId4"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId5"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId6"/>
+    <sheet name="チェックシート(iLO)" sheetId="4" r:id="rId7"/>
+    <sheet name="テンプレート(iLO)" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1531084084" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1531084084" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1531084084" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1531084084"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
+  <si>
+    <t>共通設定</t>
+  </si>
+  <si>
+    <t>ネットワーク設定</t>
+  </si>
+  <si>
+    <t>SNMPトラップ設定</t>
+  </si>
+  <si>
+    <t>検査ドメイン</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
+    <t>ユーザID</t>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+  </si>
+  <si>
+    <t>エイリアス名</t>
+  </si>
+  <si>
+    <t>比較対象</t>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+  </si>
+  <si>
+    <t>管理LAN IP</t>
+  </si>
+  <si>
+    <t>トラップサーバ</t>
+  </si>
+  <si>
+    <t>SNMPコミュニティ</t>
+  </si>
+  <si>
+    <t>SNMPバージョン</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>template_id</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>compare_server</t>
+  </si>
+  <si>
+    <t>specific_password</t>
+  </si>
+  <si>
+    <t>ip_mng</t>
+  </si>
+  <si>
+    <t>snmp_address</t>
+  </si>
+  <si>
+    <t>snmp_community</t>
+  </si>
+  <si>
+    <t>snmp_version</t>
+  </si>
   <si>
     <t>iLO</t>
   </si>
   <si>
-    <t>server_name</t>
-  </si>
-  <si>
-    <t>ip</t>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>remote_alias</t>
-  </si>
-  <si>
-    <t>compare_server</t>
+    <t>iLO</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
+  </si>
+  <si>
+    <t>ドメイン</t>
+  </si>
+  <si>
+    <t>接続IP</t>
+  </si>
+  <si>
+    <t>OS名</t>
+  </si>
+  <si>
+    <t>アーキテクチャ</t>
+  </si>
+  <si>
+    <t>CPU数</t>
+  </si>
+  <si>
+    <t>MEM容量</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
+    <t>ネットワーク構成</t>
+  </si>
+  <si>
+    <t>管理LAN</t>
+  </si>
+  <si>
+    <t>検査成績</t>
+  </si>
+  <si>
+    <t>検査結果</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>success_rate</t>
+  </si>
+  <si>
+    <t>verify_comment</t>
+  </si>
+  <si>
+    <t>_base</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>net_ip</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>visible_memory</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Nic</t>
+  </si>
+  <si>
+    <t>iLO</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>nic</t>
+  </si>
+  <si>
+    <t>PRIMERGY</t>
+  </si>
+  <si>
+    <t>検査対象</t>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+  </si>
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Platform</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>error_msg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -60,6 +284,9 @@
     <t>FWバージョン</t>
   </si>
   <si>
+    <t>iLO</t>
+  </si>
+  <si>
     <t>iLO FWバージョンを取得します</t>
   </si>
   <si>
@@ -96,6 +323,18 @@
     <t>ライセンスタイプ</t>
   </si>
   <si>
+    <t>ip_mng</t>
+  </si>
+  <si>
+    <t>管理IP</t>
+  </si>
+  <si>
+    <t>iLO</t>
+  </si>
+  <si>
+    <t>管理IPアドレス</t>
+  </si>
+  <si>
     <t>BootMode</t>
   </si>
   <si>
@@ -144,18 +383,12 @@
     <t>Nic</t>
   </si>
   <si>
-    <t>ネットワーク構成</t>
-  </si>
-  <si>
     <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
     <t>Storage</t>
   </si>
   <si>
-    <t>ディスク構成</t>
-  </si>
-  <si>
     <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
@@ -168,431 +401,187 @@
     <t>SNMP構成情報を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
-    <t>ホスト名</t>
-  </si>
-  <si>
-    <t>共通設定</t>
-  </si>
-  <si>
-    <t>検査ドメイン</t>
-  </si>
-  <si>
-    <t>対象サーバ</t>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-  </si>
-  <si>
-    <t>ユーザID</t>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-  </si>
-  <si>
-    <t>エイリアス名</t>
-  </si>
-  <si>
-    <t>比較対象</t>
-  </si>
-  <si>
-    <t>CPU数</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>account_id</t>
-  </si>
-  <si>
-    <t>template_id</t>
-  </si>
-  <si>
-    <t>ostrich</t>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>iLO</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ドメイン</t>
-  </si>
-  <si>
-    <t>接続IP</t>
-  </si>
-  <si>
-    <t>OS名</t>
-  </si>
-  <si>
-    <t>アーキテクチャ</t>
-  </si>
-  <si>
-    <t>MEM容量</t>
-  </si>
-  <si>
-    <t>管理LAN</t>
-  </si>
-  <si>
-    <t>検査成績</t>
-  </si>
-  <si>
-    <t>検査結果</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>検査対象</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プラットフォーム</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テストID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Platform</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>error_msg</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>success_rate</t>
-  </si>
-  <si>
-    <t>verify_comment</t>
-  </si>
-  <si>
-    <t>_base</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>os</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>arch</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>cpu_total</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>mem_total</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>filesystem</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>net_ip</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Linux</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>os_caption</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>os_architecture</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>visible_memory</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>network</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Nic</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>iLO</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>nic</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>PRIMERGY</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>管理LAN IP</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ip_mng</t>
-  </si>
-  <si>
-    <t>ip_mng</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SNMPバージョン</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SNMPトラップ設定</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>トラップサーバ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SNMPコミュニティ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>snmp_address</t>
-  </si>
-  <si>
-    <t>snmp_community</t>
-  </si>
-  <si>
-    <t>snmp_version</t>
-  </si>
-  <si>
-    <t>ネットワーク設定</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>iLO</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>SNMPStatus</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SNMP構成ステータス</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SNMP構成ステータス</t>
-    <rPh sb="4" eb="6">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>snmp_address:k</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>snmp_community:k</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>snmp_version:k</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>192.168.1.148</t>
-    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>192.168.125.120</t>
-    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>trapcomm2</t>
   </si>
   <si>
     <t>v2c</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>trapcomm2</t>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>community</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>管理IP</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>iLO</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>管理IPアドレス</t>
-    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;¥&quot;;\-#,##0\ &quot;¥&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;¥&quot;;[Red]\-#,##0\ &quot;¥&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;¥&quot;;\-#,##0.00\ &quot;¥&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;¥&quot;;[Red]\-#,##0.00\ &quot;¥&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;¥&quot;_-;\-* #,##0\ &quot;¥&quot;_-;_-* &quot;-&quot;\ &quot;¥&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _¥_-;\-* #,##0\ _¥_-;_-* &quot;-&quot;\ _¥_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8">
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="1"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+            <pm:latin face="Meiryo UI" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
       <family val="3"/>
-      <charset val="128"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" fgClr="3F3F3F" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" fgClr="3F3F3F" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" fgClr="3F3F3F" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,50 +590,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="none">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="none">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="none">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084"/>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -659,126 +724,308 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1531084084"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="出力" xfId="2" builtinId="21"/>
-    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1531084084" count="1">
+        <pm:charStyle name="標準" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1531084084" count="5">
+        <pm:color name="色 24" rgb="3F3F3F"/>
+        <pm:color name="色 25" rgb="FFFFCC"/>
+        <pm:color name="色 26" rgb="CCFFFF"/>
+        <pm:color name="色 27" rgb="F2F2F2"/>
+        <pm:color name="*20%灰色" rgb="000000"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -788,106 +1035,46 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="ＭＳ Ｐゴシック"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,279 +1086,310 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="12" width="19.125" customWidth="1"/>
-    <col min="13" max="1021" width="8.75" customWidth="1"/>
-    <col min="1022" max="1023" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="3.500000" customWidth="1"/>
+    <col min="2" max="2" width="12.245455" customWidth="1"/>
+    <col min="3" max="3" width="13.245455" customWidth="1"/>
+    <col min="4" max="4" width="13.000000" customWidth="1"/>
+    <col min="6" max="6" width="13.745455" customWidth="1"/>
+    <col min="7" max="7" width="13.127273" customWidth="1"/>
+    <col min="8" max="8" width="16.500000" customWidth="1"/>
+    <col min="9" max="13" width="19.127273" customWidth="1"/>
+    <col min="14" max="1022" width="8.745455" customWidth="1"/>
+    <col min="1023" max="1024" width="11.627273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1179,9 +1397,10 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
@@ -1195,9 +1414,10 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="7"/>
@@ -1211,9 +1431,10 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="7"/>
@@ -1227,9 +1448,10 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="7"/>
@@ -1243,9 +1465,10 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="7"/>
@@ -1259,9 +1482,10 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="7"/>
@@ -1275,9 +1499,10 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="7"/>
@@ -1291,9 +1516,10 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="7"/>
@@ -1307,9 +1533,10 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="7"/>
@@ -1323,9 +1550,10 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="7"/>
@@ -1339,9 +1567,10 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="7"/>
@@ -1355,9 +1584,10 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="7"/>
@@ -1371,9 +1601,10 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="7"/>
@@ -1387,9 +1618,10 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="7"/>
@@ -1403,9 +1635,10 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="7"/>
@@ -1419,9 +1652,10 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="7"/>
@@ -1435,9 +1669,10 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="7"/>
@@ -1451,9 +1686,10 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="7"/>
@@ -1467,9 +1703,10 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="7"/>
@@ -1483,274 +1720,338 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="1.052778" bottom="1.052778" header="0.787500" footer="0.787500"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="F1" zoomScale="70" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="24.75" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="1025" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="4.245455" customWidth="1"/>
+    <col min="2" max="4" width="14.372727" customWidth="1"/>
+    <col min="5" max="5" width="16.627273" customWidth="1"/>
+    <col min="6" max="8" width="13.127273" customWidth="1"/>
+    <col min="9" max="11" width="16.627273" customWidth="1"/>
+    <col min="12" max="12" width="12.245455" customWidth="1"/>
+    <col min="13" max="13" width="24.745455" customWidth="1"/>
+    <col min="14" max="14" width="11.500000" customWidth="1"/>
+    <col min="15" max="1025" width="8.745455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1">
+      <c r="A4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="5" spans="1:14" hidden="1">
+      <c r="A5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="6" spans="1:14" hidden="1">
+      <c r="A6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="7" spans="1:14" hidden="1">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="8" spans="1:14" hidden="1">
+      <c r="A8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="9" spans="1:14" hidden="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="10" spans="1:14" hidden="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="11" spans="1:14" hidden="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1766,7 +2067,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1782,7 +2083,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1798,7 +2099,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1815,80 +2116,106 @@
       <c r="N15" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="65.75" customWidth="1"/>
+    <col min="1" max="1" width="3.372727" customWidth="1"/>
+    <col min="2" max="3" width="12.872727" customWidth="1"/>
+    <col min="4" max="4" width="17.000000" customWidth="1"/>
+    <col min="5" max="5" width="65.745455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1896,447 +2223,493 @@
       <c r="E6" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="normal" zoomScale="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="49.625" customWidth="1"/>
-    <col min="7" max="1025" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="4.372727" customWidth="1"/>
+    <col min="2" max="2" width="21.245455" customWidth="1"/>
+    <col min="3" max="3" width="22.500000" customWidth="1"/>
+    <col min="4" max="5" width="7.372727" customWidth="1"/>
+    <col min="6" max="6" width="49.627273" customWidth="1"/>
+    <col min="7" max="1025" width="7.372727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>121</v>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="1.052778" bottom="1.052778" header="0.787500" footer="0.787500"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="1009" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="9.000000" customWidth="1"/>
+    <col min="2" max="3" width="14.745455" customWidth="1"/>
+    <col min="4" max="4" width="16.000000" customWidth="1"/>
+    <col min="5" max="5" width="16.745455" customWidth="1"/>
+    <col min="6" max="6" width="13.627273" customWidth="1"/>
+    <col min="7" max="1009" width="8.745455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="8">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
@@ -2345,9 +2718,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
@@ -2356,9 +2729,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
@@ -2367,9 +2740,9 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="3"/>
@@ -2378,9 +2751,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="8">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
@@ -2389,9 +2762,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
@@ -2400,9 +2773,9 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
@@ -2411,9 +2784,9 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="8">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
@@ -2422,9 +2795,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
@@ -2433,9 +2806,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="8">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
@@ -2444,9 +2817,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="8">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="3"/>
@@ -2455,9 +2828,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="8">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="3"/>
@@ -2466,9 +2839,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="8">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
@@ -2477,9 +2850,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="8">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
@@ -2488,9 +2861,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="8">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="3"/>
@@ -2499,9 +2872,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="8">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
@@ -2510,9 +2883,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="8">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
@@ -2521,9 +2894,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="8">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="3"/>
@@ -2532,9 +2905,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="8">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="8"/>
@@ -2543,9 +2916,9 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="8">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="8"/>
@@ -2554,9 +2927,9 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="8">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="8"/>
@@ -2565,9 +2938,9 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="8">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="8"/>
@@ -2576,9 +2949,9 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="8">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="8"/>
@@ -2587,9 +2960,9 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="8">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="8"/>
@@ -2598,9 +2971,9 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="8">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="8"/>
@@ -2609,9 +2982,9 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="8">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="8"/>
@@ -2620,9 +2993,9 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="8">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="8"/>
@@ -2631,9 +3004,9 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="8">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="8"/>
@@ -2642,9 +3015,9 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="8">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="8"/>
@@ -2653,9 +3026,9 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="8">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="8"/>
@@ -2664,9 +3037,9 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="8">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="8"/>
@@ -2675,9 +3048,9 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="8">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="8"/>
@@ -2686,9 +3059,9 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="8">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="8"/>
@@ -2697,9 +3070,9 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="8">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="8"/>
@@ -2708,9 +3081,9 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="8">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>37</v>
       </c>
       <c r="B39" s="8"/>
@@ -2719,9 +3092,9 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="8">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>38</v>
       </c>
       <c r="B40" s="8"/>
@@ -2730,9 +3103,9 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="8">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>39</v>
       </c>
       <c r="B41" s="8"/>
@@ -2741,9 +3114,9 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="8">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>40</v>
       </c>
       <c r="B42" s="8"/>
@@ -2752,9 +3125,9 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="8">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>41</v>
       </c>
       <c r="B43" s="8"/>
@@ -2763,9 +3136,9 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="8">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>42</v>
       </c>
       <c r="B44" s="8"/>
@@ -2774,9 +3147,9 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="8">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>43</v>
       </c>
       <c r="B45" s="8"/>
@@ -2785,9 +3158,9 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="8">
-        <f t="shared" si="0"/>
+        <f>A45+1</f>
         <v>44</v>
       </c>
       <c r="B46" s="8"/>
@@ -2796,9 +3169,9 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="8">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>45</v>
       </c>
       <c r="B47" s="8"/>
@@ -2807,9 +3180,9 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="8">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>46</v>
       </c>
       <c r="B48" s="8"/>
@@ -2818,9 +3191,9 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="8">
-        <f t="shared" si="0"/>
+        <f>A48+1</f>
         <v>47</v>
       </c>
       <c r="B49" s="8"/>
@@ -2829,9 +3202,9 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="8">
-        <f t="shared" si="0"/>
+        <f>A49+1</f>
         <v>48</v>
       </c>
       <c r="B50" s="8"/>
@@ -2840,9 +3213,9 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="8">
-        <f t="shared" si="0"/>
+        <f>A50+1</f>
         <v>49</v>
       </c>
       <c r="B51" s="8"/>
@@ -2851,9 +3224,9 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="8">
-        <f t="shared" si="0"/>
+        <f>A51+1</f>
         <v>50</v>
       </c>
       <c r="B52" s="8"/>
@@ -2862,9 +3235,9 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="8">
-        <f t="shared" si="0"/>
+        <f>A52+1</f>
         <v>51</v>
       </c>
       <c r="B53" s="8"/>
@@ -2873,9 +3246,9 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="8">
-        <f t="shared" si="0"/>
+        <f>A53+1</f>
         <v>52</v>
       </c>
       <c r="B54" s="8"/>
@@ -2884,9 +3257,9 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="8">
-        <f t="shared" si="0"/>
+        <f>A54+1</f>
         <v>53</v>
       </c>
       <c r="B55" s="8"/>
@@ -2895,9 +3268,9 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="8">
-        <f t="shared" si="0"/>
+        <f>A55+1</f>
         <v>54</v>
       </c>
       <c r="B56" s="8"/>
@@ -2906,9 +3279,9 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="8">
-        <f t="shared" si="0"/>
+        <f>A56+1</f>
         <v>55</v>
       </c>
       <c r="B57" s="8"/>
@@ -2917,9 +3290,9 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="8">
-        <f t="shared" si="0"/>
+        <f>A57+1</f>
         <v>56</v>
       </c>
       <c r="B58" s="8"/>
@@ -2928,9 +3301,9 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="8">
-        <f t="shared" si="0"/>
+        <f>A58+1</f>
         <v>57</v>
       </c>
       <c r="B59" s="8"/>
@@ -2939,9 +3312,9 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" s="8">
-        <f t="shared" si="0"/>
+        <f>A59+1</f>
         <v>58</v>
       </c>
       <c r="B60" s="8"/>
@@ -2950,9 +3323,9 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="8">
-        <f t="shared" si="0"/>
+        <f>A60+1</f>
         <v>59</v>
       </c>
       <c r="B61" s="8"/>
@@ -2961,9 +3334,9 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="8">
-        <f t="shared" si="0"/>
+        <f>A61+1</f>
         <v>60</v>
       </c>
       <c r="B62" s="8"/>
@@ -2972,9 +3345,9 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="8">
-        <f t="shared" si="0"/>
+        <f>A62+1</f>
         <v>61</v>
       </c>
       <c r="B63" s="8"/>
@@ -2983,9 +3356,9 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="8">
-        <f t="shared" si="0"/>
+        <f>A63+1</f>
         <v>62</v>
       </c>
       <c r="B64" s="8"/>
@@ -2994,9 +3367,9 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="8">
-        <f t="shared" si="0"/>
+        <f>A64+1</f>
         <v>63</v>
       </c>
       <c r="B65" s="8"/>
@@ -3005,9 +3378,9 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="8">
-        <f t="shared" si="0"/>
+        <f>A65+1</f>
         <v>64</v>
       </c>
       <c r="B66" s="8"/>
@@ -3016,9 +3389,9 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="8">
-        <f t="shared" si="0"/>
+        <f>A66+1</f>
         <v>65</v>
       </c>
       <c r="B67" s="8"/>
@@ -3027,9 +3400,9 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="8">
-        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <f>A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="8"/>
@@ -3038,9 +3411,9 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="8">
-        <f t="shared" si="1"/>
+        <f>A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="8"/>
@@ -3049,9 +3422,9 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="8">
-        <f t="shared" si="1"/>
+        <f>A69+1</f>
         <v>68</v>
       </c>
       <c r="B70" s="8"/>
@@ -3060,9 +3433,9 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="8">
-        <f t="shared" si="1"/>
+        <f>A70+1</f>
         <v>69</v>
       </c>
       <c r="B71" s="8"/>
@@ -3071,9 +3444,9 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="8">
-        <f t="shared" si="1"/>
+        <f>A71+1</f>
         <v>70</v>
       </c>
       <c r="B72" s="8"/>
@@ -3082,9 +3455,9 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="8">
-        <f t="shared" si="1"/>
+        <f>A72+1</f>
         <v>71</v>
       </c>
       <c r="B73" s="8"/>
@@ -3093,9 +3466,9 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="8">
-        <f t="shared" si="1"/>
+        <f>A73+1</f>
         <v>72</v>
       </c>
       <c r="B74" s="8"/>
@@ -3104,9 +3477,9 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="8">
-        <f t="shared" si="1"/>
+        <f>A74+1</f>
         <v>73</v>
       </c>
       <c r="B75" s="8"/>
@@ -3115,9 +3488,9 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="8">
-        <f t="shared" si="1"/>
+        <f>A75+1</f>
         <v>74</v>
       </c>
       <c r="B76" s="8"/>
@@ -3126,9 +3499,9 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="8">
-        <f t="shared" si="1"/>
+        <f>A76+1</f>
         <v>75</v>
       </c>
       <c r="B77" s="8"/>
@@ -3137,9 +3510,9 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="8">
-        <f t="shared" si="1"/>
+        <f>A77+1</f>
         <v>76</v>
       </c>
       <c r="B78" s="8"/>
@@ -3148,9 +3521,9 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="8">
-        <f t="shared" si="1"/>
+        <f>A78+1</f>
         <v>77</v>
       </c>
       <c r="B79" s="8"/>
@@ -3159,9 +3532,9 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="8">
-        <f t="shared" si="1"/>
+        <f>A79+1</f>
         <v>78</v>
       </c>
       <c r="B80" s="8"/>
@@ -3170,9 +3543,9 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="8">
-        <f t="shared" si="1"/>
+        <f>A80+1</f>
         <v>79</v>
       </c>
       <c r="B81" s="8"/>
@@ -3181,9 +3554,9 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="8">
-        <f t="shared" si="1"/>
+        <f>A81+1</f>
         <v>80</v>
       </c>
       <c r="B82" s="8"/>
@@ -3192,9 +3565,9 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="8">
-        <f t="shared" si="1"/>
+        <f>A82+1</f>
         <v>81</v>
       </c>
       <c r="B83" s="8"/>
@@ -3203,9 +3576,9 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="8">
-        <f t="shared" si="1"/>
+        <f>A83+1</f>
         <v>82</v>
       </c>
       <c r="B84" s="8"/>
@@ -3214,9 +3587,9 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="8">
-        <f t="shared" si="1"/>
+        <f>A84+1</f>
         <v>83</v>
       </c>
       <c r="B85" s="8"/>
@@ -3225,9 +3598,9 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="8">
-        <f t="shared" si="1"/>
+        <f>A85+1</f>
         <v>84</v>
       </c>
       <c r="B86" s="8"/>
@@ -3236,9 +3609,9 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="8">
-        <f t="shared" si="1"/>
+        <f>A86+1</f>
         <v>85</v>
       </c>
       <c r="B87" s="8"/>
@@ -3247,9 +3620,9 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="8">
-        <f t="shared" si="1"/>
+        <f>A87+1</f>
         <v>86</v>
       </c>
       <c r="B88" s="8"/>
@@ -3258,9 +3631,9 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="8">
-        <f t="shared" si="1"/>
+        <f>A88+1</f>
         <v>87</v>
       </c>
       <c r="B89" s="8"/>
@@ -3269,9 +3642,9 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="8">
-        <f t="shared" si="1"/>
+        <f>A89+1</f>
         <v>88</v>
       </c>
       <c r="B90" s="8"/>
@@ -3280,9 +3653,9 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="8">
-        <f t="shared" si="1"/>
+        <f>A90+1</f>
         <v>89</v>
       </c>
       <c r="B91" s="8"/>
@@ -3291,9 +3664,9 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="8">
-        <f t="shared" si="1"/>
+        <f>A91+1</f>
         <v>90</v>
       </c>
       <c r="B92" s="8"/>
@@ -3302,9 +3675,9 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="8">
-        <f t="shared" si="1"/>
+        <f>A92+1</f>
         <v>91</v>
       </c>
       <c r="B93" s="8"/>
@@ -3313,9 +3686,9 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="8">
-        <f t="shared" si="1"/>
+        <f>A93+1</f>
         <v>92</v>
       </c>
       <c r="B94" s="8"/>
@@ -3324,9 +3697,9 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="8">
-        <f t="shared" si="1"/>
+        <f>A94+1</f>
         <v>93</v>
       </c>
       <c r="B95" s="8"/>
@@ -3335,9 +3708,9 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="8">
-        <f t="shared" si="1"/>
+        <f>A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="8"/>
@@ -3346,9 +3719,9 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="8">
-        <f t="shared" si="1"/>
+        <f>A96+1</f>
         <v>95</v>
       </c>
       <c r="B97" s="8"/>
@@ -3357,9 +3730,9 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="8">
-        <f t="shared" si="1"/>
+        <f>A97+1</f>
         <v>96</v>
       </c>
       <c r="B98" s="8"/>
@@ -3368,9 +3741,9 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="8">
-        <f t="shared" si="1"/>
+        <f>A98+1</f>
         <v>97</v>
       </c>
       <c r="B99" s="8"/>
@@ -3379,9 +3752,9 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="8">
-        <f t="shared" si="1"/>
+        <f>A99+1</f>
         <v>98</v>
       </c>
       <c r="B100" s="8"/>
@@ -3390,9 +3763,9 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" s="8">
-        <f t="shared" si="1"/>
+        <f>A100+1</f>
         <v>99</v>
       </c>
       <c r="B101" s="8"/>
@@ -3401,9 +3774,9 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="8">
-        <f t="shared" si="1"/>
+        <f>A101+1</f>
         <v>100</v>
       </c>
       <c r="B102" s="8"/>
@@ -3413,12 +3786,34 @@
       <c r="F102" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="1.052778" bottom="1.052778" header="0.787500" footer="0.787500"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="minoru"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId4"/>
@@ -17,10 +17,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1531084084" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1531084084" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1531084084" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1531084084"/>
+      <pm:revision xmlns:pm="smNativeData" day="1531257167" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1531257167" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1531257167" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1531257167"/>
     </ext>
   </extLst>
 </workbook>
@@ -119,7 +119,7 @@
     <t>ostrich</t>
   </si>
   <si>
-    <t>192.168.10.1</t>
+    <t>192.168.1.148</t>
   </si>
   <si>
     <t>Test</t>
@@ -419,7 +419,7 @@
     <t>snmp_version:k</t>
   </si>
   <si>
-    <t>192.168.1.148</t>
+    <t>${ip}</t>
   </si>
   <si>
     <t>OK</t>
@@ -460,7 +460,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531257167" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -475,7 +475,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531257167" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -491,7 +491,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531257167" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -507,7 +507,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531257167" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -522,7 +522,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531257167" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -539,7 +539,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531257167" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -555,7 +555,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531257167" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -572,7 +572,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084084" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531257167" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -581,7 +581,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,7 +594,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531257167" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -608,7 +608,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531257167" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -619,7 +619,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531257167" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -630,7 +630,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531257167" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -641,7 +641,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531257167" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -652,7 +652,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531257167" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -663,7 +663,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531257167" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -674,24 +674,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084084" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531257167" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -707,7 +696,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084"/>
+          <pm:border xmlns:pm="smNativeData" id="1531257167"/>
         </ext>
       </extLst>
     </border>
@@ -726,7 +715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084">
+          <pm:border xmlns:pm="smNativeData" id="1531257167">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -750,7 +739,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084">
+          <pm:border xmlns:pm="smNativeData" id="1531257167">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -774,7 +763,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084"/>
+          <pm:border xmlns:pm="smNativeData" id="1531257167"/>
         </ext>
       </extLst>
     </border>
@@ -793,7 +782,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084">
+          <pm:border xmlns:pm="smNativeData" id="1531257167">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -817,7 +806,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084">
+          <pm:border xmlns:pm="smNativeData" id="1531257167">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -841,7 +830,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084">
+          <pm:border xmlns:pm="smNativeData" id="1531257167">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -865,7 +854,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084">
+          <pm:border xmlns:pm="smNativeData" id="1531257167">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -887,7 +876,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084">
+          <pm:border xmlns:pm="smNativeData" id="1531257167">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -910,26 +899,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084084"/>
+          <pm:border xmlns:pm="smNativeData" id="1531257167"/>
         </ext>
       </extLst>
     </border>
@@ -945,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,9 +923,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -991,9 +958,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1009,10 +973,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1531084084" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1531257167" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1531084084" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1531257167" count="5">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="FFFFCC"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -1253,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView view="normal" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1272,455 +1236,455 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="15" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1731,7 +1695,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531257167" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1742,16 +1706,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1764,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="F1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView view="normal" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1782,344 +1746,344 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>51</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531257167" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="5" spans="1:14" hidden="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10" t="s">
         <v>58</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531257167" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="6" spans="1:14" hidden="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10" t="s">
         <v>63</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531257167" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="7" spans="1:14" hidden="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10" t="s">
         <v>65</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531257167" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="8" spans="1:14" hidden="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12" t="s">
         <v>68</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531257167" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="9" spans="1:14" hidden="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531257167" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="10" spans="1:14" hidden="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531257167" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="11" spans="1:14" hidden="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084084" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531257167" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531257167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2128,16 +2092,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2163,70 +2127,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531257167" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2235,16 +2199,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2272,28 +2236,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -2316,7 +2280,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2334,7 +2298,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>87</v>
       </c>
@@ -2350,7 +2314,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>89</v>
       </c>
@@ -2366,7 +2330,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>92</v>
       </c>
@@ -2382,7 +2346,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>95</v>
       </c>
@@ -2398,7 +2362,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2414,7 +2378,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2432,7 +2396,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2452,7 +2416,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2472,7 +2436,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2492,7 +2456,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>114</v>
       </c>
@@ -2508,7 +2472,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2528,7 +2492,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2548,7 +2512,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2568,7 +2532,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>124</v>
       </c>
@@ -2587,7 +2551,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531257167" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2598,16 +2562,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2620,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2635,47 +2599,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2695,7 +2659,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -2708,7 +2672,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>A4+1</f>
         <v>3</v>
       </c>
@@ -2719,7 +2683,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>A5+1</f>
         <v>4</v>
       </c>
@@ -2730,7 +2694,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>A6+1</f>
         <v>5</v>
       </c>
@@ -2741,7 +2705,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>A7+1</f>
         <v>6</v>
       </c>
@@ -2752,7 +2716,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>A8+1</f>
         <v>7</v>
       </c>
@@ -2763,7 +2727,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>A9+1</f>
         <v>8</v>
       </c>
@@ -2774,7 +2738,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>A10+1</f>
         <v>9</v>
       </c>
@@ -2785,7 +2749,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>A11+1</f>
         <v>10</v>
       </c>
@@ -2796,7 +2760,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>A12+1</f>
         <v>11</v>
       </c>
@@ -2807,7 +2771,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>A13+1</f>
         <v>12</v>
       </c>
@@ -2818,7 +2782,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>A14+1</f>
         <v>13</v>
       </c>
@@ -2829,7 +2793,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>A15+1</f>
         <v>14</v>
       </c>
@@ -2840,7 +2804,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>A16+1</f>
         <v>15</v>
       </c>
@@ -2851,7 +2815,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>A17+1</f>
         <v>16</v>
       </c>
@@ -2862,7 +2826,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>A18+1</f>
         <v>17</v>
       </c>
@@ -2873,7 +2837,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>A19+1</f>
         <v>18</v>
       </c>
@@ -2884,7 +2848,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>A20+1</f>
         <v>19</v>
       </c>
@@ -2895,7 +2859,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>A21+1</f>
         <v>20</v>
       </c>
@@ -2906,890 +2870,890 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <f>A39+1</f>
         <v>38</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <f>A40+1</f>
         <v>39</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <f>A41+1</f>
         <v>40</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <f>A42+1</f>
         <v>41</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <f>A43+1</f>
         <v>42</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <f>A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <f>A45+1</f>
         <v>44</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <f>A46+1</f>
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <f>A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <f>A48+1</f>
         <v>47</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <f>A49+1</f>
         <v>48</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <f>A50+1</f>
         <v>49</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <f>A51+1</f>
         <v>50</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <f>A52+1</f>
         <v>51</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <f>A53+1</f>
         <v>52</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <f>A54+1</f>
         <v>53</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <f>A55+1</f>
         <v>54</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <f>A56+1</f>
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <f>A57+1</f>
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <f>A58+1</f>
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <f>A59+1</f>
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <f>A60+1</f>
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <f>A61+1</f>
         <v>60</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <f>A62+1</f>
         <v>61</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <f>A63+1</f>
         <v>62</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <f>A64+1</f>
         <v>63</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <f>A65+1</f>
         <v>64</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <f>A66+1</f>
         <v>65</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <f>A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <f>A68+1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <f>A69+1</f>
         <v>68</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <f>A70+1</f>
         <v>69</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <f>A71+1</f>
         <v>70</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <f>A72+1</f>
         <v>71</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <f>A73+1</f>
         <v>72</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <f>A74+1</f>
         <v>73</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <f>A75+1</f>
         <v>74</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <f>A76+1</f>
         <v>75</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <f>A77+1</f>
         <v>76</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <f>A78+1</f>
         <v>77</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="8">
+      <c r="A80" s="7">
         <f>A79+1</f>
         <v>78</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="8">
+      <c r="A81" s="7">
         <f>A80+1</f>
         <v>79</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <f>A81+1</f>
         <v>80</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="8">
+      <c r="A83" s="7">
         <f>A82+1</f>
         <v>81</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="8">
+      <c r="A84" s="7">
         <f>A83+1</f>
         <v>82</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <f>A84+1</f>
         <v>83</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="8">
+      <c r="A86" s="7">
         <f>A85+1</f>
         <v>84</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <f>A86+1</f>
         <v>85</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <f>A87+1</f>
         <v>86</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="8">
+      <c r="A89" s="7">
         <f>A88+1</f>
         <v>87</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="8">
+      <c r="A90" s="7">
         <f>A89+1</f>
         <v>88</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <f>A90+1</f>
         <v>89</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <f>A91+1</f>
         <v>90</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="8">
+      <c r="A93" s="7">
         <f>A92+1</f>
         <v>91</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <f>A93+1</f>
         <v>92</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="8">
+      <c r="A95" s="7">
         <f>A94+1</f>
         <v>93</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <f>A95+1</f>
         <v>94</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <f>A96+1</f>
         <v>95</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <f>A97+1</f>
         <v>96</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="8">
+      <c r="A99" s="7">
         <f>A98+1</f>
         <v>97</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="8">
+      <c r="A100" s="7">
         <f>A99+1</f>
         <v>98</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="8">
+      <c r="A101" s="7">
         <f>A100+1</f>
         <v>99</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="8">
+      <c r="A102" s="7">
         <f>A101+1</f>
         <v>100</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084084" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531257167" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3800,16 +3764,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084084" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084084" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531257167" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531257167" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084084" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257167" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -947,7 +947,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,6 +1003,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1259,7 +1265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,6 +1346,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1663,7 +1687,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1681,428 +1705,958 @@
     <col min="1018" max="1019" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="27" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="27" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="27" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="27" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="27" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="27" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="27" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="24" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="26"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="M30" s="30"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="4">
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="27"/>
+      <c r="B33" s="32">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="4">
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="27"/>
+      <c r="B34" s="32">
         <v>2</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="4">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" s="32">
         <v>3</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="4">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="27"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="27"/>
+      <c r="B36" s="32">
         <v>4</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="4">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="27"/>
+      <c r="B37" s="32">
         <v>5</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="4">
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="27"/>
+      <c r="B38" s="32">
         <v>6</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="4">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="27"/>
+      <c r="B39" s="32">
         <v>7</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="4">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="27"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="27"/>
+      <c r="B40" s="32">
         <v>8</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="4">
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="27"/>
+      <c r="B41" s="32">
         <v>9</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B42" s="4">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="27"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="27"/>
+      <c r="B42" s="32">
         <v>10</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="27"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="27" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="18" t="s">
         <v>182</v>
       </c>
@@ -2117,13 +2671,64 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+      <c r="O48" s="27"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="12" t="s">
         <v>174</v>
       </c>
@@ -2138,8 +2743,11 @@
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="14"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O52" s="27"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -2152,8 +2760,11 @@
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="23"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O53" s="27"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="21" t="s">
         <v>175</v>
       </c>
@@ -2168,8 +2779,11 @@
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="23"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O54" s="27"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="15" t="s">
         <v>176</v>
       </c>
@@ -2184,18 +2798,100 @@
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="17"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="O55" s="27"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="18" t="s">
         <v>177</v>
       </c>
@@ -2210,18 +2906,100 @@
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
       <c r="N61" s="20"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="O61" s="27"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="18" t="s">
         <v>159</v>
       </c>
@@ -2236,18 +3014,83 @@
       <c r="L67" s="19"/>
       <c r="M67" s="19"/>
       <c r="N67" s="20"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+      <c r="O67" s="27"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="18" t="s">
         <v>162</v>
       </c>
@@ -2262,13 +3105,64 @@
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
       <c r="N72" s="20"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+      <c r="O72" s="27"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="18" t="s">
         <v>164</v>
       </c>
@@ -2283,6 +3177,24 @@
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="20"/>
+      <c r="O76" s="27"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="7" r:id="rId1"/>
@@ -1338,19 +1338,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1362,8 +1356,14 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1689,7 +1689,7 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1706,957 +1706,957 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30" t="s">
+      <c r="K30" s="27"/>
+      <c r="L30" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="27"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="28" t="s">
+      <c r="M31" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="28" t="s">
+      <c r="N31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O31" s="27"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="M32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="28" t="s">
+      <c r="N32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="27"/>
+      <c r="O32" s="24"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" s="32">
+      <c r="A33" s="24"/>
+      <c r="B33" s="26">
         <v>1</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="27"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
-      <c r="B34" s="32">
+      <c r="A34" s="24"/>
+      <c r="B34" s="26">
         <v>2</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="27"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="32">
+      <c r="A35" s="24"/>
+      <c r="B35" s="26">
         <v>3</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="27"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
-      <c r="B36" s="32">
+      <c r="A36" s="24"/>
+      <c r="B36" s="26">
         <v>4</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="27"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="24"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
-      <c r="B37" s="32">
+      <c r="A37" s="24"/>
+      <c r="B37" s="26">
         <v>5</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="27"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="24"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="27"/>
-      <c r="B38" s="32">
+      <c r="A38" s="24"/>
+      <c r="B38" s="26">
         <v>6</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="27"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="24"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="27"/>
-      <c r="B39" s="32">
+      <c r="A39" s="24"/>
+      <c r="B39" s="26">
         <v>7</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="27"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="27"/>
-      <c r="B40" s="32">
+      <c r="A40" s="24"/>
+      <c r="B40" s="26">
         <v>8</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="27"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="24"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="27"/>
-      <c r="B41" s="32">
+      <c r="A41" s="24"/>
+      <c r="B41" s="26">
         <v>9</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="27"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="24"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="27"/>
-      <c r="B42" s="32">
+      <c r="A42" s="24"/>
+      <c r="B42" s="26">
         <v>10</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="27"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="18" t="s">
         <v>182</v>
       </c>
@@ -2671,64 +2671,64 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
-      <c r="O48" s="27"/>
+      <c r="O48" s="24"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27" t="s">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="12" t="s">
         <v>174</v>
       </c>
@@ -2743,11 +2743,11 @@
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="14"/>
-      <c r="O52" s="27"/>
+      <c r="O52" s="24"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -2760,11 +2760,11 @@
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="23"/>
-      <c r="O53" s="27"/>
+      <c r="O53" s="24"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="21" t="s">
         <v>175</v>
       </c>
@@ -2779,11 +2779,11 @@
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="23"/>
-      <c r="O54" s="27"/>
+      <c r="O54" s="24"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="15" t="s">
         <v>176</v>
       </c>
@@ -2798,100 +2798,100 @@
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="27"/>
+      <c r="O55" s="24"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="18" t="s">
         <v>177</v>
       </c>
@@ -2906,100 +2906,100 @@
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
       <c r="N61" s="20"/>
-      <c r="O61" s="27"/>
+      <c r="O61" s="24"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27" t="s">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="18" t="s">
         <v>159</v>
       </c>
@@ -3014,83 +3014,83 @@
       <c r="L67" s="19"/>
       <c r="M67" s="19"/>
       <c r="N67" s="20"/>
-      <c r="O67" s="27"/>
+      <c r="O67" s="24"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27" t="s">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27" t="s">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="18" t="s">
         <v>162</v>
       </c>
@@ -3105,64 +3105,64 @@
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
       <c r="N72" s="20"/>
-      <c r="O72" s="27"/>
+      <c r="O72" s="24"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27" t="s">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="18" t="s">
         <v>164</v>
       </c>
@@ -3177,24 +3177,24 @@
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="20"/>
-      <c r="O76" s="27"/>
+      <c r="O76" s="24"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3236,24 +3236,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3713,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="224">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -675,6 +675,86 @@
   </si>
   <si>
     <t>(*)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>HW基本情報</t>
+    <rPh sb="2" eb="4">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機種、型番、S/Nの検索</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カタバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FindHPiLO</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>iLO</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機種</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─S/N</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─機種</t>
+    <rPh sb="2" eb="4">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─型番</t>
+    <rPh sb="2" eb="4">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>HSI_SBSN</t>
+  </si>
+  <si>
+    <t>HSI_SPN</t>
+  </si>
+  <si>
+    <t>HSI_PRODUCTID</t>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1109,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,6 +1266,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1528,7 +1620,7 @@
   </sheetPr>
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2108,24 +2200,24 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27" t="s">
+      <c r="K30" s="30"/>
+      <c r="L30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -3202,24 +3294,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3687,29 +3779,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W15"/>
+  <dimension ref="A3:Z15"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="24.75" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="16" width="8.75" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="2" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="16" max="16" width="24.75" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="19" width="8.75" customWidth="1"/>
-    <col min="20" max="20" width="14.375" customWidth="1"/>
-    <col min="21" max="23" width="12.25" customWidth="1"/>
-    <col min="24" max="1025" width="8.75" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="22" width="8.75" customWidth="1"/>
+    <col min="23" max="23" width="14.375" customWidth="1"/>
+    <col min="24" max="26" width="12.25" customWidth="1"/>
+    <col min="27" max="1028" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -3722,65 +3814,74 @@
       <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
         <v>108</v>
       </c>
@@ -3809,195 +3910,222 @@
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="Y4" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="Z4" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="N6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="S6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21" t="s">
+      <c r="T6" s="21"/>
+      <c r="U6" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="V6" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="W6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22" t="s">
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="J7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="K7" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="L7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="M7" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21" t="s">
+      <c r="O7" s="21"/>
+      <c r="P7" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="Q7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="S7" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21" t="s">
+      <c r="T7" s="21"/>
+      <c r="U7" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="22" t="s">
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="P8" s="21"/>
-      <c r="Q8" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="T8" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="22" t="s">
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>108</v>
       </c>
@@ -4011,33 +4139,36 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
-        <v>140</v>
-      </c>
+      <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="P9" s="21"/>
-      <c r="Q9" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
+      <c r="T9" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
-      <c r="W9" s="22" t="s">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -4054,15 +4185,18 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -4079,15 +4213,18 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4104,15 +4241,18 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -4129,15 +4269,18 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -4154,15 +4297,18 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -4179,6 +4325,9 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -4286,16 +4435,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="49.625" customWidth="1"/>
@@ -4445,97 +4594,83 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4543,10 +4678,10 @@
         <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>158</v>
@@ -4555,7 +4690,7 @@
         <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4563,10 +4698,10 @@
         <v>155</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>158</v>
@@ -4575,7 +4710,7 @@
         <v>155</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4583,10 +4718,10 @@
         <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>158</v>
@@ -4595,29 +4730,105 @@
         <v>155</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="232">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -755,6 +755,38 @@
     <rPh sb="0" eb="2">
       <t>カタバン</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ハードウェア</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ファームウェア</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SNMP</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -3781,7 +3813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4435,393 +4467,457 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="49.625" customWidth="1"/>
-    <col min="7" max="1025" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="49.625" customWidth="1"/>
+    <col min="8" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>150</v>
+      <c r="B4" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>156</v>
+      <c r="B5" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>160</v>
+      <c r="B6" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>162</v>
+      <c r="B7" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
+      <c r="B8" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
+      <c r="B9" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>171</v>
+      <c r="B10" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
         <v>210</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="26" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="B12" s="26" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
       <c r="B14" s="26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
+      <c r="B15" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>178</v>
+      <c r="B16" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>181</v>
+      <c r="B17" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>184</v>
+      <c r="B18" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>187</v>
+      <c r="B19" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>190</v>
+      <c r="B20" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>138</v>
+      <c r="B21" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>193</v>
+      <c r="B22" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>196</v>
+      <c r="B23" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>198</v>
       </c>
     </row>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="エラーレポート" sheetId="4" r:id="rId4"/>
     <sheet name="チェックシート(iLO)" sheetId="5" r:id="rId5"/>
     <sheet name="テンプレート(iLO)" sheetId="6" r:id="rId6"/>
+    <sheet name="テンプレート(iLO_sample)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$80</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="224">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -454,162 +455,147 @@
     <t>Storage</t>
   </si>
   <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>Primergy</t>
+  </si>
+  <si>
+    <t>検査対象</t>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+  </si>
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>error_msg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>FwVersion</t>
+  </si>
+  <si>
+    <t>FWバージョン</t>
+  </si>
+  <si>
+    <t>iLO</t>
+  </si>
+  <si>
+    <t>iLO FWバージョンを取得します</t>
+  </si>
+  <si>
+    <t>FirmwareVersion</t>
+  </si>
+  <si>
+    <t>FirmwareDate</t>
+  </si>
+  <si>
+    <t>FW日付</t>
+  </si>
+  <si>
+    <t>ManagementProcessor</t>
+  </si>
+  <si>
+    <t>管理プロセッサー</t>
+  </si>
+  <si>
+    <t>LicenseType</t>
+  </si>
+  <si>
+    <t>ライセンスタイプ</t>
+  </si>
+  <si>
+    <t>ip_mng</t>
+  </si>
+  <si>
+    <t>管理IP</t>
+  </si>
+  <si>
+    <t>iLO</t>
+  </si>
+  <si>
+    <t>管理IPアドレス</t>
+  </si>
+  <si>
+    <t>BootMode</t>
+  </si>
+  <si>
+    <t>ブートモード</t>
+  </si>
+  <si>
+    <t>ブートモードの検索</t>
+  </si>
+  <si>
+    <t>FwInfo</t>
+  </si>
+  <si>
+    <t>FW詳細情報</t>
+  </si>
+  <si>
+    <t>FWバージョンを検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>ライセンス情報</t>
+  </si>
+  <si>
+    <t>iLOライセンスを検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>プロセッサ構成</t>
+  </si>
+  <si>
+    <t>プロセッサ構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>メモリ構成</t>
+  </si>
+  <si>
+    <t>メモリ構成を取得します</t>
+  </si>
+  <si>
     <t>Nic</t>
   </si>
   <si>
-    <t>disk</t>
-  </si>
-  <si>
-    <t>Primergy</t>
-  </si>
-  <si>
-    <t>検査対象</t>
-  </si>
-  <si>
-    <t>プラットフォーム</t>
-  </si>
-  <si>
-    <t>テストID</t>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>error_msg</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>FwVersion</t>
-  </si>
-  <si>
-    <t>FWバージョン</t>
-  </si>
-  <si>
-    <t>iLO</t>
-  </si>
-  <si>
-    <t>iLO FWバージョンを取得します</t>
-  </si>
-  <si>
-    <t>FirmwareVersion</t>
-  </si>
-  <si>
-    <t>├─FWバージョン</t>
-  </si>
-  <si>
-    <t>FirmwareDate</t>
-  </si>
-  <si>
-    <t>├─FW日付</t>
-  </si>
-  <si>
-    <t>FW日付</t>
-  </si>
-  <si>
-    <t>ManagementProcessor</t>
-  </si>
-  <si>
-    <t>├─管理プロセッサー</t>
-  </si>
-  <si>
-    <t>管理プロセッサー</t>
-  </si>
-  <si>
-    <t>LicenseType</t>
-  </si>
-  <si>
-    <t>└─ライセンスタイプ</t>
-  </si>
-  <si>
-    <t>ライセンスタイプ</t>
-  </si>
-  <si>
-    <t>ip_mng</t>
-  </si>
-  <si>
-    <t>管理IP</t>
-  </si>
-  <si>
-    <t>iLO</t>
-  </si>
-  <si>
-    <t>管理IPアドレス</t>
-  </si>
-  <si>
-    <t>BootMode</t>
-  </si>
-  <si>
-    <t>ブートモード</t>
-  </si>
-  <si>
-    <t>ブートモードの検索</t>
-  </si>
-  <si>
-    <t>FwInfo</t>
-  </si>
-  <si>
-    <t>FW詳細情報</t>
-  </si>
-  <si>
-    <t>FWバージョンを検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>ライセンス情報</t>
-  </si>
-  <si>
-    <t>iLOライセンスを検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>Processor</t>
-  </si>
-  <si>
-    <t>プロセッサ構成</t>
-  </si>
-  <si>
-    <t>プロセッサ構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>メモリ構成</t>
-  </si>
-  <si>
-    <t>メモリ構成を取得します</t>
-  </si>
-  <si>
-    <t>Nic</t>
-  </si>
-  <si>
     <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
@@ -625,15 +611,6 @@
     <t>SNMP構成情報を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
-    <t>SNMPStatus</t>
-  </si>
-  <si>
-    <t>SNMP構成ステータス</t>
-  </si>
-  <si>
-    <t>SNMP構成ステータス</t>
-  </si>
-  <si>
     <t>snmp_address:k</t>
   </si>
   <si>
@@ -641,12 +618,6 @@
   </si>
   <si>
     <t>snmp_version:k</t>
-  </si>
-  <si>
-    <t>${ip}</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>192.168.125.120</t>
@@ -724,24 +695,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>├─S/N</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>├─機種</t>
-    <rPh sb="2" eb="4">
-      <t>キシュ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>└─型番</t>
-    <rPh sb="2" eb="4">
-      <t>カタバン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>HSI_SBSN</t>
   </si>
   <si>
@@ -766,10 +719,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ファームウェア</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>CPU</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -787,6 +736,33 @@
   </si>
   <si>
     <t>SNMP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FWバージョン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FW日付</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>管理プロセッサー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ライセンスタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ip_mng</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1221,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1310,6 +1286,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1925,7 +1904,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1961,7 +1940,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>8</v>
@@ -1984,7 +1963,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>10</v>
@@ -2007,7 +1986,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>12</v>
@@ -2030,7 +2009,7 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>14</v>
@@ -2232,24 +2211,24 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31" t="s">
+      <c r="K30" s="31"/>
+      <c r="L30" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -3306,9 +3285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3326,24 +3303,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3429,20 +3406,20 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>84</v>
+      <c r="F4" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -3790,7 +3767,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>利用手順!$C$84:$C$85</xm:f>
@@ -3847,13 +3824,13 @@
         <v>88</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>89</v>
@@ -3963,13 +3940,13 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>89</v>
@@ -4123,13 +4100,13 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -4146,7 +4123,7 @@
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -4175,7 +4152,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4190,7 +4167,7 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4393,16 +4370,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4410,16 +4387,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4467,10 +4444,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4516,352 +4493,352 @@
         <v>59</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B9" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
-        <v>210</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>213</v>
+        <v>222</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="26" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>225</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="26" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>95</v>
@@ -4870,55 +4847,36 @@
         <v>138</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4942,25 +4900,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="1009" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="1007" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>84</v>
@@ -4971,54 +4928,30 @@
       <c r="D1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -5026,12 +4959,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5039,10 +4968,8 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5050,10 +4977,8 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5061,10 +4986,8 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5072,10 +4995,8 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5083,10 +5004,8 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5094,10 +5013,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5105,10 +5022,8 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5116,10 +5031,8 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5127,10 +5040,8 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5138,10 +5049,8 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5149,10 +5058,8 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5160,10 +5067,8 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5171,10 +5076,8 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5182,10 +5085,8 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5193,10 +5094,8 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5204,10 +5103,8 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5215,10 +5112,8 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5226,10 +5121,8 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5237,10 +5130,8 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5248,10 +5139,8 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5259,10 +5148,8 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5270,10 +5157,8 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5281,10 +5166,8 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5292,10 +5175,8 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5303,10 +5184,8 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5314,10 +5193,8 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5325,10 +5202,8 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5336,10 +5211,8 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5347,10 +5220,8 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5358,10 +5229,8 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5369,10 +5238,8 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -5380,10 +5247,8 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -5391,10 +5256,8 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5402,10 +5265,8 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5413,10 +5274,8 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5424,10 +5283,8 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5435,10 +5292,8 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5446,10 +5301,8 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5457,10 +5310,8 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5468,10 +5319,8 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5479,10 +5328,8 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5490,10 +5337,8 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5501,10 +5346,8 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5512,10 +5355,8 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5523,10 +5364,8 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5534,10 +5373,8 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5545,10 +5382,8 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5556,10 +5391,8 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5567,10 +5400,8 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5578,10 +5409,8 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5589,10 +5418,8 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5600,10 +5427,8 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5611,10 +5436,8 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5622,10 +5445,8 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5633,10 +5454,8 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5644,10 +5463,8 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5655,10 +5472,8 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5666,10 +5481,8 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -5677,10 +5490,8 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -5688,10 +5499,8 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -5699,10 +5508,8 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -5710,10 +5517,8 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -5721,10 +5526,8 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -5732,10 +5535,8 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -5743,10 +5544,8 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -5754,10 +5553,8 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -5765,10 +5562,8 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -5776,10 +5571,8 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -5787,10 +5580,8 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -5798,10 +5589,8 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -5809,10 +5598,8 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -5820,10 +5607,8 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -5831,10 +5616,8 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -5842,10 +5625,8 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -5853,10 +5634,8 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -5864,10 +5643,8 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -5875,10 +5652,8 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -5886,10 +5661,8 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -5897,10 +5670,8 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -5908,10 +5679,8 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -5919,10 +5688,8 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -5930,10 +5697,8 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -5941,10 +5706,8 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -5952,10 +5715,8 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -5963,10 +5724,8 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -5974,10 +5733,8 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -5985,10 +5742,8 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -5996,10 +5751,8 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -6007,10 +5760,8 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -6018,10 +5769,8 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -6029,10 +5778,8 @@
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -6040,10 +5787,8 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -6051,10 +5796,8 @@
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -6062,10 +5805,8 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -6073,10 +5814,8 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -6084,10 +5823,8 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -6095,10 +5832,8 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6106,8 +5841,6 @@
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -6126,4 +5859,967 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="1007" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="5">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="5">
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="5">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="5">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="5">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="5">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="5">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="5">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="5">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="5">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="5">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="5">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="5">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="5">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="5">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="234">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -763,6 +763,64 @@
   </si>
   <si>
     <t>ip_mng</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>HostPowerSaver</t>
+  </si>
+  <si>
+    <t>PowerReading</t>
+  </si>
+  <si>
+    <t>PowerSupply</t>
+  </si>
+  <si>
+    <t>電力プロファイル</t>
+    <rPh sb="0" eb="2">
+      <t>デンリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロセッサー電源調整機能</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-HPiLOHostPowerSaver コマンドレット実行</t>
+    <rPh sb="31" eb="33">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>電力測定値</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-HPiLOPowerReading コマンドレット実行</t>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>電源供給構成</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-HPiLOPowerSupply コマンドレット実行</t>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -4444,16 +4502,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
@@ -4877,6 +4933,69 @@
       </c>
       <c r="G22" s="1" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -4512,8 +4512,9 @@
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="49.625" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="49.625" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
     <col min="8" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4558,13 +4559,13 @@
         <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4578,11 +4579,11 @@
       <c r="D5" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
@@ -4595,11 +4596,11 @@
       <c r="D6" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
@@ -4612,11 +4613,11 @@
       <c r="D7" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
@@ -4631,14 +4632,14 @@
       <c r="D8" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4655,13 +4656,13 @@
         <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4675,12 +4676,12 @@
       <c r="D10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4694,12 +4695,12 @@
       <c r="D11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4713,12 +4714,12 @@
       <c r="D12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4732,12 +4733,12 @@
       <c r="D13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4753,12 +4754,12 @@
       <c r="D14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4772,12 +4773,12 @@
       <c r="D15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4794,13 +4795,13 @@
         <v>173</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4816,12 +4817,12 @@
       <c r="D17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4838,13 +4839,13 @@
         <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4858,12 +4859,12 @@
       <c r="D19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4880,13 +4881,13 @@
         <v>185</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4903,13 +4904,13 @@
         <v>138</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4926,13 +4927,13 @@
         <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4948,12 +4949,12 @@
       <c r="D23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4969,12 +4970,12 @@
       <c r="D24" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4990,12 +4991,12 @@
       <c r="D25" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\template\HP_iLO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\getconfig_cleansing_k1\cleansing_data\import\v2.8\ilo\template\HP_iLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="214">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -503,69 +503,9 @@
     <t>Y</t>
   </si>
   <si>
-    <t>FwVersion</t>
-  </si>
-  <si>
-    <t>FWバージョン</t>
-  </si>
-  <si>
     <t>iLO</t>
   </si>
   <si>
-    <t>iLO FWバージョンを取得します</t>
-  </si>
-  <si>
-    <t>FirmwareVersion</t>
-  </si>
-  <si>
-    <t>FirmwareDate</t>
-  </si>
-  <si>
-    <t>FW日付</t>
-  </si>
-  <si>
-    <t>ManagementProcessor</t>
-  </si>
-  <si>
-    <t>管理プロセッサー</t>
-  </si>
-  <si>
-    <t>LicenseType</t>
-  </si>
-  <si>
-    <t>ライセンスタイプ</t>
-  </si>
-  <si>
-    <t>ip_mng</t>
-  </si>
-  <si>
-    <t>管理IP</t>
-  </si>
-  <si>
-    <t>iLO</t>
-  </si>
-  <si>
-    <t>管理IPアドレス</t>
-  </si>
-  <si>
-    <t>BootMode</t>
-  </si>
-  <si>
-    <t>ブートモード</t>
-  </si>
-  <si>
-    <t>ブートモードの検索</t>
-  </si>
-  <si>
-    <t>FwInfo</t>
-  </si>
-  <si>
-    <t>FW詳細情報</t>
-  </si>
-  <si>
-    <t>FWバージョンを検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
@@ -575,34 +515,22 @@
     <t>iLOライセンスを検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
-    <t>Processor</t>
-  </si>
-  <si>
     <t>プロセッサ構成</t>
   </si>
   <si>
     <t>プロセッサ構成数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
-    <t>Memory</t>
-  </si>
-  <si>
     <t>メモリ構成</t>
   </si>
   <si>
     <t>メモリ構成を取得します</t>
   </si>
   <si>
-    <t>Nic</t>
-  </si>
-  <si>
     <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
     <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>SNMP</t>
   </si>
   <si>
     <t>SNMP構成</t>
@@ -676,15 +604,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>FindHPiLO</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>S/N</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>iLO</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -715,10 +635,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ハードウェア</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>CPU</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -736,22 +652,6 @@
   </si>
   <si>
     <t>SNMP</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>FWバージョン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>FW日付</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>管理プロセッサー</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ライセンスタイプ</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -766,15 +666,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>HostPowerSaver</t>
-  </si>
-  <si>
-    <t>PowerReading</t>
-  </si>
-  <si>
-    <t>PowerSupply</t>
-  </si>
-  <si>
     <t>電力プロファイル</t>
     <rPh sb="0" eb="2">
       <t>デンリョク</t>
@@ -804,23 +695,93 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>電源供給構成</t>
+    <t>10.216.5.76</t>
+  </si>
+  <si>
+    <t>ilo01</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>overview</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>proc_info</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mem_info</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>物理ディスク</t>
     <rPh sb="0" eb="2">
-      <t>デンゲン</t>
+      <t>ブツリ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョウキュウ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>物理ディスク</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>drive</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>物理ディスク構成を検索し、別シートに詳細情報を登録します</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>コウセイ</t>
     </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Get-HPiLOPowerSupply コマンドレット実行</t>
-    <rPh sb="28" eb="30">
-      <t>ジッコウ</t>
-    </rPh>
+    <t>snmp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>power_regulator</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>power_summary</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Storage</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1255,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1344,6 +1305,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1962,7 +1926,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1998,7 +1962,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>8</v>
@@ -2021,7 +1985,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>10</v>
@@ -2044,7 +2008,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="25" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>12</v>
@@ -2067,7 +2031,7 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="25" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>14</v>
@@ -2269,24 +2233,24 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32" t="s">
+      <c r="K30" s="32"/>
+      <c r="L30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -3343,7 +3307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3361,24 +3327,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3468,17 +3434,15 @@
         <v>56</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>58</v>
+        <v>199</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>56</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F4" s="30"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3818,14 +3782,14 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>利用手順!$C$84:$C$85</xm:f>
@@ -3882,13 +3846,13 @@
         <v>88</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>89</v>
@@ -3998,13 +3962,13 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>89</v>
@@ -4158,13 +4122,13 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -4181,7 +4145,7 @@
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -4502,9 +4466,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4550,7 +4516,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>150</v>
@@ -4569,77 +4535,89 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
+      <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B5" s="26" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26" t="s">
-        <v>205</v>
+        <v>157</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="B6" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26" t="s">
-        <v>205</v>
+      <c r="F6" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+      <c r="A7" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B7" s="26" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>200</v>
-      </c>
       <c r="B8" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>202</v>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4647,98 +4625,108 @@
         <v>154</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B11" s="26" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B12" s="26" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B13" s="26" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4746,256 +4734,19 @@
         <v>154</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5054,13 +4805,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -6017,13 +5768,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -6031,13 +5782,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -6047,7 +5798,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1"/>
     </row>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\getconfig_cleansing_k1\cleansing_data\import\v2.8\ilo\template\HP_iLO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\template\HP_iLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="213">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>* .\template\HP_iLO が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します</t>
-  </si>
-  <si>
-    <t>* VMWare Power CLI は v6.x が必要です。 最新のPowerCLI 10.x はAPIの互換性がないためサポート外になります</t>
   </si>
   <si>
     <t>1. プロジェクトディレクトリに移動</t>
@@ -692,13 +689,6 @@
     <rPh sb="29" eb="31">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>10.216.5.76</t>
-  </si>
-  <si>
-    <t>ilo01</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -782,6 +772,14 @@
   </si>
   <si>
     <t>Storage</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ostrich</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1653,7 +1651,9 @@
   </sheetPr>
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1762,9 +1762,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1798,7 +1796,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1835,7 +1833,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1870,7 +1868,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1907,7 +1905,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1926,7 +1924,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1962,13 +1960,13 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -1985,13 +1983,13 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>10</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>11</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2008,13 +2006,13 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -2031,13 +2029,13 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -2055,10 +2053,10 @@
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2076,10 +2074,10 @@
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -2097,10 +2095,10 @@
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -2118,10 +2116,10 @@
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -2139,10 +2137,10 @@
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -2160,10 +2158,10 @@
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -2197,7 +2195,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2234,7 +2232,7 @@
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
       <c r="C30" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
@@ -2243,11 +2241,11 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M30" s="33"/>
       <c r="N30" s="34"/>
@@ -2257,83 +2255,83 @@
       <c r="A31" s="18"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="F31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="G31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="H31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="I31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="J31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="K31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="L31" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="M31" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="N31" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="F32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="H32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="I32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="J32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="K32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="L32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="M32" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="N32" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="O32" s="18"/>
     </row>
@@ -2343,19 +2341,19 @@
         <v>1</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="E33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="F33" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>59</v>
-      </c>
       <c r="G33" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -2556,7 +2554,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2593,7 +2591,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -2630,7 +2628,7 @@
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -2665,7 +2663,7 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -2702,7 +2700,7 @@
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -2738,7 +2736,7 @@
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -2757,7 +2755,7 @@
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -2791,7 +2789,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2828,7 +2826,7 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
       <c r="B59" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -2865,7 +2863,7 @@
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -2899,7 +2897,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -2936,7 +2934,7 @@
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
       <c r="B65" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -2973,7 +2971,7 @@
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -3008,7 +3006,7 @@
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
       <c r="B69" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -3027,7 +3025,7 @@
     <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
       <c r="B70" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -3064,7 +3062,7 @@
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -3099,7 +3097,7 @@
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74" s="18"/>
       <c r="B74" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -3136,7 +3134,7 @@
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
@@ -3161,7 +3159,7 @@
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -3209,7 +3207,7 @@
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
@@ -3234,7 +3232,7 @@
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -3268,15 +3266,15 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
         <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3328,7 +3326,7 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -3337,11 +3335,11 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" s="35"/>
       <c r="K1" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
@@ -3349,81 +3347,81 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -3431,16 +3429,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="4"/>
@@ -3834,96 +3832,96 @@
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>109</v>
-      </c>
       <c r="C4" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -3945,40 +3943,40 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Z4" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
@@ -3995,12 +3993,12 @@
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -4009,58 +4007,58 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="N6" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="S6" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="T6" s="21"/>
       <c r="U6" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="W6" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="W6" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -4069,66 +4067,66 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="21" t="s">
+      <c r="L7" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>132</v>
-      </c>
       <c r="N7" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="S7" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="T7" s="21"/>
       <c r="U7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>183</v>
-      </c>
       <c r="G8" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -4138,14 +4136,14 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -4153,12 +4151,12 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -4174,14 +4172,14 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
@@ -4189,7 +4187,7 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4392,33 +4390,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4468,7 +4466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -4513,241 +4511,241 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>177</v>
-      </c>
       <c r="D6" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4788,30 +4786,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -5751,30 +5749,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -5782,13 +5780,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -5798,7 +5796,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1"/>
     </row>

--- a/template/HP_iLO/iLOチェックシート.xlsx
+++ b/template/HP_iLO/iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13990" tabRatio="746" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="214">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -780,6 +780,10 @@
   </si>
   <si>
     <t>192.168.10.1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1655,21 +1659,21 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.5" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="1" max="2" width="3.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="14" width="19.125" customWidth="1"/>
-    <col min="15" max="1017" width="8.75" customWidth="1"/>
-    <col min="1018" max="1019" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="14" width="19.08984375" customWidth="1"/>
+    <col min="15" max="1017" width="8.7265625" customWidth="1"/>
+    <col min="1018" max="1019" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1686,7 +1690,7 @@
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1709,7 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1722,7 +1726,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>1</v>
@@ -1741,7 +1745,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
         <v>2</v>
@@ -1760,7 +1764,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1777,7 +1781,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1794,7 +1798,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1813,7 +1817,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1830,7 +1834,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
         <v>4</v>
@@ -1849,7 +1853,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1866,7 +1870,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
@@ -1885,7 +1889,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1902,7 +1906,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
         <v>6</v>
@@ -1921,7 +1925,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
         <v>173</v>
@@ -1940,7 +1944,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1957,7 +1961,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
         <v>174</v>
@@ -1980,7 +1984,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
         <v>174</v>
@@ -2003,7 +2007,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="25" t="s">
         <v>174</v>
@@ -2026,7 +2030,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="25" t="s">
         <v>174</v>
@@ -2049,7 +2053,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18" t="s">
@@ -2070,7 +2074,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
@@ -2091,7 +2095,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
@@ -2112,7 +2116,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
@@ -2133,7 +2137,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18" t="s">
@@ -2154,7 +2158,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
@@ -2175,7 +2179,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2192,7 +2196,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="18" t="s">
         <v>27</v>
@@ -2211,7 +2215,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2228,7 +2232,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
       <c r="C30" s="32" t="s">
@@ -2251,7 +2255,7 @@
       <c r="N30" s="34"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
@@ -2292,7 +2296,7 @@
       </c>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="20" t="s">
         <v>42</v>
@@ -2335,7 +2339,7 @@
       </c>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="20">
         <v>1</v>
@@ -2364,7 +2368,7 @@
       <c r="N33" s="20"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="20">
         <v>2</v>
@@ -2383,7 +2387,7 @@
       <c r="N34" s="20"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="20">
         <v>3</v>
@@ -2402,7 +2406,7 @@
       <c r="N35" s="20"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="20">
         <v>4</v>
@@ -2421,7 +2425,7 @@
       <c r="N36" s="20"/>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="20">
         <v>5</v>
@@ -2440,7 +2444,7 @@
       <c r="N37" s="20"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="20">
         <v>6</v>
@@ -2459,7 +2463,7 @@
       <c r="N38" s="20"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="20">
         <v>7</v>
@@ -2478,7 +2482,7 @@
       <c r="N39" s="20"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="20">
         <v>8</v>
@@ -2497,7 +2501,7 @@
       <c r="N40" s="20"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="20">
         <v>9</v>
@@ -2516,7 +2520,7 @@
       <c r="N41" s="20"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="20">
         <v>10</v>
@@ -2535,7 +2539,7 @@
       <c r="N42" s="20"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2552,7 +2556,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>59</v>
       </c>
@@ -2571,7 +2575,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -2588,7 +2592,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18" t="s">
         <v>60</v>
@@ -2607,7 +2611,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2624,7 +2628,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
@@ -2643,7 +2647,7 @@
       <c r="N48" s="16"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2660,7 +2664,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
       <c r="B50" s="18" t="s">
         <v>62</v>
@@ -2679,7 +2683,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2696,7 +2700,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="8" t="s">
@@ -2715,7 +2719,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="17"/>
@@ -2732,7 +2736,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="17" t="s">
@@ -2751,7 +2755,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="11" t="s">
@@ -2770,7 +2774,7 @@
       <c r="N55" s="13"/>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2787,7 +2791,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>66</v>
       </c>
@@ -2806,7 +2810,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2823,7 +2827,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="18" t="s">
         <v>67</v>
@@ -2842,7 +2846,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2859,7 +2863,7 @@
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="14" t="s">
@@ -2878,7 +2882,7 @@
       <c r="N61" s="16"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -2895,7 +2899,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>69</v>
       </c>
@@ -2914,7 +2918,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -2931,7 +2935,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="18" t="s">
         <v>70</v>
@@ -2950,7 +2954,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -2967,7 +2971,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="14" t="s">
@@ -2986,7 +2990,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -3003,7 +3007,7 @@
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="18" t="s">
         <v>72</v>
@@ -3022,7 +3026,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
       <c r="B70" s="18" t="s">
         <v>73</v>
@@ -3041,7 +3045,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -3058,7 +3062,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="14" t="s">
@@ -3077,7 +3081,7 @@
       <c r="N72" s="16"/>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -3094,7 +3098,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
       <c r="B74" s="18" t="s">
         <v>75</v>
@@ -3113,7 +3117,7 @@
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -3130,7 +3134,7 @@
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25" t="s">
@@ -3155,7 +3159,7 @@
       <c r="T76" s="25"/>
       <c r="U76" s="25"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="14" t="s">
@@ -3180,7 +3184,7 @@
       <c r="T77" s="16"/>
       <c r="U77" s="25"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -3203,7 +3207,7 @@
       <c r="T78" s="25"/>
       <c r="U78" s="25"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25" t="s">
@@ -3228,7 +3232,7 @@
       <c r="T79" s="25"/>
       <c r="U79" s="25"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="14" t="s">
@@ -3247,7 +3251,7 @@
       <c r="N80" s="16"/>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -3264,7 +3268,7 @@
       <c r="N81" s="18"/>
       <c r="O81" s="18"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>80</v>
       </c>
@@ -3272,7 +3276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>82</v>
       </c>
@@ -3305,25 +3309,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="13" width="19.125" customWidth="1"/>
-    <col min="14" max="1022" width="8.75" customWidth="1"/>
-    <col min="1023" max="1024" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="13" width="19.08984375" customWidth="1"/>
+    <col min="14" max="1022" width="8.7265625" customWidth="1"/>
+    <col min="1023" max="1024" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="35" t="s">
         <v>28</v>
@@ -3344,7 +3348,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -3383,7 +3387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3449,7 +3453,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3466,7 +3470,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3483,7 +3487,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3500,7 +3504,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3517,7 +3521,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3534,7 +3538,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3551,7 +3555,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3568,7 +3572,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3585,7 +3589,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3602,7 +3606,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3619,7 +3623,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3636,7 +3640,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3653,7 +3657,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3670,7 +3674,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3687,7 +3691,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3704,7 +3708,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3721,7 +3725,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3738,7 +3742,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3755,7 +3759,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -3812,25 +3816,25 @@
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="14" width="16.625" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
-    <col min="16" max="16" width="24.75" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="19" width="8.75" customWidth="1"/>
-    <col min="20" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="22" width="8.75" customWidth="1"/>
-    <col min="23" max="23" width="14.375" customWidth="1"/>
-    <col min="24" max="26" width="12.25" customWidth="1"/>
-    <col min="27" max="1028" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="14" width="16.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
+    <col min="16" max="16" width="24.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
+    <col min="18" max="19" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="16.08984375" customWidth="1"/>
+    <col min="21" max="22" width="8.7265625" customWidth="1"/>
+    <col min="23" max="23" width="14.36328125" customWidth="1"/>
+    <col min="24" max="26" width="12.26953125" customWidth="1"/>
+    <col min="27" max="1028" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
@@ -3910,7 +3914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>107</v>
       </c>
@@ -3952,7 +3956,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>107</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>107</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>107</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>107</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>107</v>
       </c>
@@ -4190,7 +4194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4218,7 +4222,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4246,7 +4250,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4274,7 +4278,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4302,7 +4306,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4330,7 +4334,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4379,15 +4383,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="3" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="65.75" customWidth="1"/>
+    <col min="5" max="5" width="65.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>140</v>
@@ -4402,7 +4406,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -4419,28 +4423,28 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4466,23 +4470,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="49.625" customWidth="1"/>
-    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="1026" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" customWidth="1"/>
+    <col min="6" max="6" width="49.6328125" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="1026" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4491,7 +4495,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4500,7 +4504,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4509,7 +4513,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
@@ -4545,7 +4549,9 @@
       <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>157</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>175</v>
       </c>
@@ -4574,7 +4580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>201</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -4639,7 +4645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
@@ -4685,7 +4691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>153</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
@@ -4775,16 +4781,16 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="1007" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="1007" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>150</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4820,7 +4826,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -4829,7 +4835,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4838,7 +4844,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4847,7 +4853,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4856,7 +4862,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4865,7 +4871,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4874,7 +4880,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4883,7 +4889,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4892,7 +4898,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4901,7 +4907,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4910,7 +4916,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4919,7 +4925,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4928,7 +4934,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4937,7 +4943,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4946,7 +4952,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4955,7 +4961,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4964,7 +4970,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4973,7 +4979,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4982,7 +4988,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4991,7 +4997,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5000,7 +5006,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5009,7 +5015,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5018,7 +5024,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5027,7 +5033,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5036,7 +5042,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5045,7 +5051,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5054,7 +5060,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5063,7 +5069,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5072,7 +5078,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5081,7 +5087,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5090,7 +5096,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5099,7 +5105,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5108,7 +5114,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -5117,7 +5123,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -5126,7 +5132,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5135,7 +5141,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5144,7 +5150,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5153,7 +5159,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5162,7 +5168,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5171,7 +5177,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5180,7 +5186,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5189,7 +5195,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5198,7 +5204,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5207,7 +5213,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5216,7 +5222,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5225,7 +5231,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5234,7 +5240,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5243,7 +5249,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5252,7 +5258,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5261,7 +5267,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5270,7 +5276,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5279,7 +5285,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5288,7 +5294,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5297,7 +5303,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5306,7 +5312,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5315,7 +5321,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5324,7 +5330,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5333,7 +5339,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5342,7 +5348,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5351,7 +5357,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -5360,7 +5366,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -5369,7 +5375,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -5378,7 +5384,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -5387,7 +5393,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -5396,7 +5402,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -5405,7 +5411,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -5414,7 +5420,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -5423,7 +5429,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -5432,7 +5438,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -5441,7 +5447,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -5450,7 +5456,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -5459,7 +5465,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -5468,7 +5474,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -5477,7 +5483,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -5486,7 +5492,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -5495,7 +5501,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -5504,7 +5510,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -5513,7 +5519,7 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -5522,7 +5528,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -5531,7 +5537,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -5540,7 +5546,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -5549,7 +5555,7 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -5558,7 +5564,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -5567,7 +5573,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -5576,7 +5582,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -5585,7 +5591,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -5594,7 +5600,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -5603,7 +5609,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -5612,7 +5618,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -5621,7 +5627,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -5630,7 +5636,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -5639,7 +5645,7 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -5648,7 +5654,7 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -5657,7 +5663,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -5666,7 +5672,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -5675,7 +5681,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -5684,7 +5690,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -5693,7 +5699,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -5702,7 +5708,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -5738,16 +5744,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="1007" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="1007" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>145</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -5775,7 +5781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -5800,7 +5806,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5809,7 +5815,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5818,7 +5824,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5827,7 +5833,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5836,7 +5842,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5845,7 +5851,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5854,7 +5860,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5863,7 +5869,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5872,7 +5878,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5881,7 +5887,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5890,7 +5896,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5899,7 +5905,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5908,7 +5914,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5917,7 +5923,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5926,7 +5932,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5935,7 +5941,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5944,7 +5950,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5953,7 +5959,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5962,7 +5968,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5971,7 +5977,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5980,7 +5986,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5989,7 +5995,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5998,7 +6004,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6007,7 +6013,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6016,7 +6022,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6025,7 +6031,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6034,7 +6040,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6043,7 +6049,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6052,7 +6058,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6061,7 +6067,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6070,7 +6076,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6079,7 +6085,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6088,7 +6094,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6097,7 +6103,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6106,7 +6112,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6115,7 +6121,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6124,7 +6130,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6133,7 +6139,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6142,7 +6148,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6151,7 +6157,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6160,7 +6166,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6169,7 +6175,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6178,7 +6184,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6187,7 +6193,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6196,7 +6202,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6205,7 +6211,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6214,7 +6220,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6223,7 +6229,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6232,7 +6238,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6241,7 +6247,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6250,7 +6256,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6259,7 +6265,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6268,7 +6274,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6277,7 +6283,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6286,7 +6292,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6295,7 +6301,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6304,7 +6310,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6313,7 +6319,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6322,7 +6328,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6331,7 +6337,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6340,7 +6346,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6349,7 +6355,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6358,7 +6364,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6367,7 +6373,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <f t="shared" ref="A68:A102" si="1">A67+1</f>
         <v>66</v>
@@ -6376,7 +6382,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6385,7 +6391,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6394,7 +6400,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6403,7 +6409,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6412,7 +6418,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6421,7 +6427,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6430,7 +6436,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6439,7 +6445,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6448,7 +6454,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6457,7 +6463,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6466,7 +6472,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6475,7 +6481,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6484,7 +6490,7 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6493,7 +6499,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6502,7 +6508,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6511,7 +6517,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6520,7 +6526,7 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6529,7 +6535,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6538,7 +6544,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6547,7 +6553,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6556,7 +6562,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6565,7 +6571,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6574,7 +6580,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6583,7 +6589,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6592,7 +6598,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6601,7 +6607,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6610,7 +6616,7 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6619,7 +6625,7 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6628,7 +6634,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6637,7 +6643,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6646,7 +6652,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6655,7 +6661,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6664,7 +6670,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6673,7 +6679,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
